--- a/biology/Histoire de la zoologie et de la botanique/Verne_Edwin_Grant/Verne_Edwin_Grant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Verne_Edwin_Grant/Verne_Edwin_Grant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verne Edwin Grant (* le 17 octobre 1917 à San Francisco, Californie ; † le 29 mai 2007 à Austin, Texas)[1] est un botaniste et évolutionniste américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verne Edwin Grant (* le 17 octobre 1917 à San Francisco, Californie ; † le 29 mai 2007 à Austin, Texas) est un botaniste et évolutionniste américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Verne Edwin Grant, The Origin of Adaptations, Columbia University Press, New York, 1963.
 (en) Verne Grant, « Incongruence between cladistic and taxonomic systems », American Journal of Botany, vol. 90, no 9,‎ septembre 2003, p. 1263-1270 (ISSN 0002-9122, DOI 10.3732/ajb.90.9.1263, lire en ligne)</t>
